--- a/메뉴구성도v01.xlsx
+++ b/메뉴구성도v01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ex-edge\2024\화면설계서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9C1453-0893-485A-B899-F7E9AFD2F7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144A2B53-0BDB-402A-934E-5C618AEACB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52095" yWindow="2655" windowWidth="21420" windowHeight="14490" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53760" yWindow="2700" windowWidth="21420" windowHeight="14490" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1070,10 +1070,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J264"/>
+  <dimension ref="A1:J262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1841,7 +1841,7 @@
       <c r="A51" s="11"/>
       <c r="B51" s="25"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
+      <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -1850,10 +1850,16 @@
       <c r="J51" s="12"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
+      <c r="A52" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="B52" s="25"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="7"/>
+      <c r="C52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
@@ -1862,10 +1868,14 @@
       <c r="J52" s="12"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
+      <c r="A53" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="B53" s="25"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="7"/>
+      <c r="D53" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
@@ -1874,16 +1884,10 @@
       <c r="J53" s="12"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A54" s="11"/>
       <c r="B54" s="25"/>
-      <c r="C54" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
@@ -1892,26 +1896,32 @@
       <c r="J54" s="12"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" s="25"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="12"/>
+      <c r="A55" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="10"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="11"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="28"/>
+      <c r="C56" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
@@ -1921,29 +1931,27 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="10"/>
+        <v>90</v>
+      </c>
+      <c r="B57" s="28"/>
+      <c r="C57" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="12"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B58" s="28"/>
       <c r="C58" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -1955,11 +1963,11 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B59" s="28"/>
       <c r="C59" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -1970,13 +1978,9 @@
       <c r="J59" s="12"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
-        <v>91</v>
-      </c>
+      <c r="A60" s="13"/>
       <c r="B60" s="28"/>
-      <c r="C60" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
@@ -1986,13 +1990,9 @@
       <c r="J60" s="12"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="A61" s="13"/>
       <c r="B61" s="28"/>
-      <c r="C61" s="6" t="s">
-        <v>89</v>
-      </c>
+      <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="13"/>
-      <c r="B63" s="28"/>
+      <c r="B63" s="29"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -2025,45 +2025,45 @@
       <c r="I63" s="7"/>
       <c r="J63" s="12"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="13"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="12"/>
+    <row r="64" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="20"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="13"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="12"/>
-    </row>
-    <row r="66" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
@@ -4417,36 +4417,12 @@
       <c r="I262" s="5"/>
       <c r="J262" s="5"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A263" s="5"/>
-      <c r="B263" s="5"/>
-      <c r="C263" s="5"/>
-      <c r="D263" s="5"/>
-      <c r="E263" s="5"/>
-      <c r="F263" s="5"/>
-      <c r="G263" s="5"/>
-      <c r="H263" s="5"/>
-      <c r="I263" s="5"/>
-      <c r="J263" s="5"/>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A264" s="5"/>
-      <c r="B264" s="5"/>
-      <c r="C264" s="5"/>
-      <c r="D264" s="5"/>
-      <c r="E264" s="5"/>
-      <c r="F264" s="5"/>
-      <c r="G264" s="5"/>
-      <c r="H264" s="5"/>
-      <c r="I264" s="5"/>
-      <c r="J264" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B12:B37"/>
-    <mergeCell ref="B38:B56"/>
+    <mergeCell ref="B38:B54"/>
     <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="B55:B63"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
